--- a/data/trans_camb/P5_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 8,61</t>
+          <t>-5,92; 10,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 6,3</t>
+          <t>-5,82; 7,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,76</t>
+          <t>-4,0; 6,48</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>10,02%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 85,24</t>
+          <t>-33,77; 110,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 75,49</t>
+          <t>-39,26; 86,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 60,45</t>
+          <t>-28,21; 63,24</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 14,3</t>
+          <t>-9,64; 12,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,49</t>
+          <t>-7,58; 7,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,89</t>
+          <t>-6,55; 6,35</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>-0,1%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 77,02</t>
+          <t>-31,07; 53,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 53,64</t>
+          <t>-44,98; 82,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 47,26</t>
+          <t>-28,42; 40,24</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 19,16</t>
+          <t>-21,69; 23,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 13,15</t>
+          <t>-15,59; 16,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 10,92</t>
+          <t>-13,64; 14,46</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>-2,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 129,82</t>
+          <t>-77,68; 407,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 108,06</t>
+          <t>-68,37; 287,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 63,53</t>
+          <t>-59,12; 192,98</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,29</t>
+          <t>-5,24; 8,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,21</t>
+          <t>-4,6; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,71</t>
+          <t>-3,27; 4,62</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 47,4</t>
+          <t>-23,42; 53,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 40,05</t>
+          <t>-29,8; 46,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 34,56</t>
+          <t>-18,58; 33,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.032050426913024</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.681140418306351</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.299004333136004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 10,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 7,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 6,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.30728782607095</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.080074625394965</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.399421152972963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,37%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,08%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.51816988325018</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.648248763600378</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.107410935685865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-33,77; 110,56</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-39,26; 86,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 63,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2283635481320828</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1392967630286935</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1821639397138565</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3219045360848476</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3410327524739318</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2292943007178702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; 12,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 7,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 6,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.254222906783754</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.9894994034130769</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7985588345828739</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.744096936063432</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.4151940798403225</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.382825429729905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-31,07; 53,6</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-44,98; 82,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,42; 40,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.9905045047252</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.756072491593176</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.982239721453085</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.44318997970886</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.125177837812926</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.289797147562941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-21,69; 23,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; 16,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 14,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.02731536083354867</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.03099910515393712</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01929804665772556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,52%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3658591369129229</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4605031966602567</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3047220740059829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-77,68; 407,5</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-68,37; 287,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-59,12; 192,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5102589849588428</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.7543290274280872</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3975697568816617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.111159916237436</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.410607573638791</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.3623018773887848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 8,46</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 4,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 4,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.26740101233468</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.27884723723825</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-13.2375274757313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>22.10296182093607</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.85858790180042</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.38586907524317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-23,42; 53,63</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 46,46</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 33,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.06562063166548598</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02674115106717435</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02242740316800461</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.7996386478563804</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.676762241181517</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5912126487982292</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.956790651684372</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.080865613028151</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.88486378124195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.202230890351508</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7286188969477442</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.9644294162586303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.954319756575678</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.176124205334005</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.94188524805056</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.650410179553885</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.423310567181352</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.008558911004817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.06222260602493384</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.05641265928844862</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.06067061368846224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2294139210974663</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2828264975413782</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1647769077301624</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5166290744623845</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.5568471909740784</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3535103456956978</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
